--- a/src/functionalTest/resources/CCD_HRS_v1.7-PROD.xlsx
+++ b/src/functionalTest/resources/CCD_HRS_v1.7-PROD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafadayican/hmcts/em/em-hrs-api/src/functionalTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB28F9A-06F6-C849-85DD-F1CC64B09ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E70BF5-649E-1E4F-AEE4-747FE7E330A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" tabRatio="500" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -1158,13 +1158,13 @@
     <t>Yogesh Hullatti</t>
   </si>
   <si>
-    <t>Add new system user-remove close amend access form hrs-casewroker</t>
-  </si>
-  <si>
     <t xml:space="preserve">Removed Open Case </t>
   </si>
   <si>
     <t>Updated Authorisation for Close Case Event</t>
+  </si>
+  <si>
+    <t>Add new system user-remove close amend access from hrs-casewroker</t>
   </si>
 </sst>
 </file>
@@ -2441,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2614,7 +2614,7 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="154" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="155">
         <v>45614</v>
@@ -2628,7 +2628,7 @@
         <v>1.6</v>
       </c>
       <c r="B14" s="154" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" s="155">
         <v>45615</v>
@@ -2642,7 +2642,7 @@
         <v>1.7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C15" s="9">
         <v>45616</v>
@@ -5478,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5570,7 +5570,7 @@
         <v>288</v>
       </c>
       <c r="F4" s="145" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
